--- a/Configs/FRTBConfig_EU-EBA.xlsx
+++ b/Configs/FRTBConfig_EU-EBA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alan/Workspace/FRTB/Configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9DD40D-427F-E649-B54F-B3B471BD9573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC774509-6C11-9A43-8D5D-C2E7AB37181F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12120" yWindow="5680" windowWidth="29760" windowHeight="22260" xr2:uid="{702274BA-38C3-0147-8564-8B67C0FD49FC}"/>
+    <workbookView xWindow="7200" yWindow="4460" windowWidth="40840" windowHeight="26660" activeTab="16" xr2:uid="{702274BA-38C3-0147-8564-8B67C0FD49FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Copyright" sheetId="23" r:id="rId1"/>
@@ -36,7 +36,7 @@
   </sheets>
   <definedNames>
     <definedName name="fna_MAR_21_51_15" localSheetId="3">MS_CR!$E$8</definedName>
-    <definedName name="fna_MAR_21_51_16" localSheetId="3">MS_CR!$D$16</definedName>
+    <definedName name="fna_MAR_21_51_16" localSheetId="3">MS_CR!$D$17</definedName>
     <definedName name="fna_MAR_21_62_19" localSheetId="5">MS_CS!$D$26</definedName>
     <definedName name="fna_MAR_21_72_20" localSheetId="6">MS_EQ!$D$12</definedName>
   </definedNames>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="341">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="348">
   <si>
     <t>Bucket</t>
   </si>
@@ -1154,6 +1154,27 @@
   </si>
   <si>
     <t>along with this program. If not, see &lt;https://www.gnu.org/licenses/&gt;.</t>
+  </si>
+  <si>
+    <t>Covered bonds issued by credit institutions in third countries - High Quality</t>
+  </si>
+  <si>
+    <t>Covered bonds issued by credit institutions in third countries - Not High Quality</t>
+  </si>
+  <si>
+    <t>10a</t>
+  </si>
+  <si>
+    <t>10b</t>
+  </si>
+  <si>
+    <t>Credit quality steps 1</t>
+  </si>
+  <si>
+    <t>RW</t>
+  </si>
+  <si>
+    <t>This is an arrayKey because that's the way it works in other jurisdictions</t>
   </si>
 </sst>
 </file>
@@ -1645,7 +1666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896FB02E-B9E7-EE44-B543-FBA941EB6786}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2729,9 +2750,9 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2785DCCE-0AD5-4440-AC71-9F0E114FE4B8}">
   <sheetPr codeName="Sheet16"/>
-  <dimension ref="A1:X81"/>
+  <dimension ref="A1:AA81"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -2859,159 +2880,168 @@
       <c r="B11">
         <v>10</v>
       </c>
+      <c r="C11" t="s">
+        <v>327</v>
+      </c>
       <c r="D11" t="s">
         <v>209</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>328</v>
       </c>
       <c r="D12" t="s">
-        <v>295</v>
+        <v>209</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>295</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>296</v>
+      <c r="E13" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" t="s">
-        <v>293</v>
+        <v>295</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
         <v>218</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>210</v>
+      <c r="E15" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
         <v>218</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="B17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
         <v>218</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="B18">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D18" t="s">
         <v>218</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="B19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
         <v>218</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="B20">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D20" t="s">
         <v>218</v>
       </c>
       <c r="E20" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="B21">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D21" t="s">
         <v>218</v>
       </c>
       <c r="E21" s="12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="B22">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" t="s">
         <v>218</v>
       </c>
       <c r="E22" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" s="12" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
-      <c r="A23" t="s">
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
         <v>186</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
-      <c r="A24" t="s">
+    <row r="25" spans="1:27">
+      <c r="A25" t="s">
         <v>196</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
-      <c r="A25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:27">
       <c r="A26" t="s">
         <v>290</v>
       </c>
@@ -3021,76 +3051,91 @@
       <c r="C26">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:22">
+      <c r="K26" t="s">
+        <v>343</v>
+      </c>
+      <c r="L26" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" t="s">
         <v>128</v>
       </c>
-      <c r="B27">
-        <v>5.0000000000000001E-3</v>
+      <c r="B27" t="s">
+        <v>346</v>
       </c>
       <c r="C27">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E27">
         <v>0.01</v>
       </c>
-      <c r="E27">
-        <v>0.05</v>
-      </c>
       <c r="F27">
+        <v>0.05</v>
+      </c>
+      <c r="G27">
         <v>0.03</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>0.3</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>0.02</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.01</v>
       </c>
-      <c r="K27">
+      <c r="L27" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M27">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="L27">
-        <v>0.05</v>
-      </c>
-      <c r="M27">
+      <c r="N27">
+        <v>0.05</v>
+      </c>
+      <c r="O27">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="N27">
+      <c r="P27">
         <v>0.02</v>
       </c>
-      <c r="O27">
+      <c r="Q27">
         <v>0.04</v>
       </c>
-      <c r="P27">
+      <c r="R27">
         <v>0.12</v>
       </c>
-      <c r="Q27">
+      <c r="S27">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>5.5E-2</v>
       </c>
-      <c r="T27">
-        <v>0.05</v>
-      </c>
-      <c r="U27">
+      <c r="V27">
+        <v>0.05</v>
+      </c>
+      <c r="W27">
         <v>0.12</v>
       </c>
-      <c r="V27">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22">
+      <c r="X27">
+        <v>0.05</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" t="s">
         <v>156</v>
       </c>
@@ -3098,7 +3143,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:27">
       <c r="A29" t="s">
         <v>157</v>
       </c>
@@ -3106,7 +3151,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:27">
       <c r="A30" t="s">
         <v>134</v>
       </c>
@@ -3114,7 +3159,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:27">
       <c r="A31" t="s">
         <v>158</v>
       </c>
@@ -3122,7 +3167,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:27">
       <c r="A32" t="s">
         <v>159</v>
       </c>
@@ -9471,7 +9516,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02F955FF-3809-B846-9AD2-659C7F98C4D6}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:U55"/>
+  <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -9612,205 +9657,216 @@
       <c r="B11" s="4">
         <v>10</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>327</v>
+      </c>
       <c r="D11" s="4" t="s">
-        <v>216</v>
+        <v>345</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>217</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12" s="4">
-        <v>11</v>
-      </c>
-      <c r="C12" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>328</v>
+      </c>
       <c r="D12" s="4" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>214</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
         <v>218</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="B14" s="4">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
         <v>218</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15" s="4">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
         <v>218</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>7</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16" s="4">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
         <v>218</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="B17" s="4">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
         <v>218</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="B18" s="4">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
         <v>218</v>
       </c>
       <c r="E18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="B19" s="4">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
-      <c r="B19" s="4">
+    <row r="20" spans="1:22">
+      <c r="B20" s="4">
         <v>18</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="E19" s="4" t="s">
+      <c r="C20" s="4"/>
+      <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
-      <c r="B20" s="4">
+    <row r="21" spans="1:22">
+      <c r="B21" s="4">
         <v>19</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
-      <c r="B21" s="4">
-        <v>20</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="B22" s="4">
+        <v>20</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E22" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
-      <c r="A22" t="s">
+    <row r="23" spans="1:22">
+      <c r="A23" t="s">
         <v>129</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>0.01</v>
       </c>
-      <c r="E22">
-        <v>0.05</v>
-      </c>
-      <c r="F22">
+      <c r="E23">
+        <v>0.05</v>
+      </c>
+      <c r="F23">
         <v>0.03</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>0.03</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>0.02</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>0.01</v>
       </c>
-      <c r="K22">
+      <c r="K23" s="3">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="L23">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="L22">
+      <c r="M23">
         <v>0.02</v>
       </c>
-      <c r="M22">
+      <c r="N23">
         <v>0.04</v>
       </c>
-      <c r="N22">
+      <c r="O23">
         <v>0.12</v>
       </c>
-      <c r="O22">
+      <c r="P23">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="P22">
+      <c r="Q23">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="Q22">
+      <c r="R23">
         <v>5.5E-2</v>
       </c>
-      <c r="R22">
-        <v>0.05</v>
-      </c>
-      <c r="S22">
+      <c r="S23">
+        <v>0.05</v>
+      </c>
+      <c r="T23">
         <v>0.12</v>
       </c>
-      <c r="T22">
+      <c r="U23">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="U22">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
-      <c r="A23" t="s">
-        <v>185</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1.4999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="V23">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>138</v>
       </c>
@@ -9818,7 +9874,7 @@
         <v>0.35</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>134</v>
       </c>
@@ -9826,7 +9882,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -9834,7 +9890,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>139</v>
       </c>
@@ -9842,7 +9898,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>140</v>
       </c>
@@ -9850,7 +9906,7 @@
         <v>0.65</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>141</v>
       </c>
@@ -9858,7 +9914,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>186</v>
       </c>
@@ -9866,7 +9922,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>196</v>
       </c>
@@ -9874,7 +9930,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="18">
+    <row r="32" spans="1:22" ht="18">
       <c r="A32" t="s">
         <v>14</v>
       </c>

--- a/Configs/FRTBConfig_EU-EBA.xlsx
+++ b/Configs/FRTBConfig_EU-EBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alan/Workspace/FRTB/Configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC774509-6C11-9A43-8D5D-C2E7AB37181F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC02F982-6A9C-7340-82EC-AA58F63B4085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="4460" windowWidth="40840" windowHeight="26660" activeTab="16" xr2:uid="{702274BA-38C3-0147-8564-8B67C0FD49FC}"/>
+    <workbookView xWindow="79560" yWindow="10580" windowWidth="39620" windowHeight="26960" activeTab="11" xr2:uid="{702274BA-38C3-0147-8564-8B67C0FD49FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Copyright" sheetId="23" r:id="rId1"/>
@@ -37,7 +37,7 @@
   <definedNames>
     <definedName name="fna_MAR_21_51_15" localSheetId="3">MS_CR!$E$8</definedName>
     <definedName name="fna_MAR_21_51_16" localSheetId="3">MS_CR!$D$17</definedName>
-    <definedName name="fna_MAR_21_62_19" localSheetId="5">MS_CS!$D$26</definedName>
+    <definedName name="fna_MAR_21_62_19" localSheetId="5">MS_CS!$E$26</definedName>
     <definedName name="fna_MAR_21_72_20" localSheetId="6">MS_EQ!$D$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="352">
   <si>
     <t>Bucket</t>
   </si>
@@ -400,15 +400,6 @@
     <t>CQRiskWeight</t>
   </si>
   <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>OtherBucketSector</t>
-  </si>
-  <si>
-    <t>OtherBucketRegion</t>
-  </si>
-  <si>
     <t>Asia</t>
   </si>
   <si>
@@ -418,36 +409,6 @@
     <t>North America</t>
   </si>
   <si>
-    <t>Asset Backed CP</t>
-  </si>
-  <si>
-    <t>Auto Loas / Leases</t>
-  </si>
-  <si>
-    <t>RMBS</t>
-  </si>
-  <si>
-    <t>Credit Cards</t>
-  </si>
-  <si>
-    <t>CLO</t>
-  </si>
-  <si>
-    <t>CDO-Squared</t>
-  </si>
-  <si>
-    <t>SME</t>
-  </si>
-  <si>
-    <t>Student Loans</t>
-  </si>
-  <si>
-    <t>Oher Retal</t>
-  </si>
-  <si>
-    <t>Wholesale</t>
-  </si>
-  <si>
     <t>BA-Rho</t>
   </si>
   <si>
@@ -635,9 +596,6 @@
   </si>
   <si>
     <t>RUB</t>
-  </si>
-  <si>
-    <t>HKG</t>
   </si>
   <si>
     <t>SGD</t>
@@ -1175,6 +1133,60 @@
   </si>
   <si>
     <t>This is an arrayKey because that's the way it works in other jurisdictions</t>
+  </si>
+  <si>
+    <t>HKD</t>
+  </si>
+  <si>
+    <t># for Vega Risk weighting both bucket 12 and 13 are deemed Large Cap</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>All Regions</t>
+  </si>
+  <si>
+    <t>Corporates (excluding SMEs)</t>
+  </si>
+  <si>
+    <t>Asset-backed commercial paper</t>
+  </si>
+  <si>
+    <t>Auto Loans/Leases</t>
+  </si>
+  <si>
+    <t>Residential mortgage-backed securities (MBS)</t>
+  </si>
+  <si>
+    <t>Credit cards</t>
+  </si>
+  <si>
+    <t>Commercial MBS</t>
+  </si>
+  <si>
+    <t>Collateralised loan obligations</t>
+  </si>
+  <si>
+    <t>Collateralised debt obligation (CDO)-squared</t>
+  </si>
+  <si>
+    <t>Small and medium enterprises (SMEs)</t>
+  </si>
+  <si>
+    <t>Student loans</t>
+  </si>
+  <si>
+    <t>Other retail</t>
+  </si>
+  <si>
+    <t>Other wholesale</t>
+  </si>
+  <si>
+    <t>All other</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -1368,9 +1380,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1408,7 +1420,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1514,7 +1526,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1656,7 +1668,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1666,7 +1678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896FB02E-B9E7-EE44-B543-FBA941EB6786}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1674,7 +1686,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="21" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1682,7 +1694,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="21" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -1693,22 +1705,22 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="21" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="21" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="21" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="21" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -1716,22 +1728,22 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="21" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="21" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="21" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="21" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -1739,12 +1751,12 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="21" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="21" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -1808,7 +1820,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1816,7 +1828,7 @@
         <v>94</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C8">
         <v>5.0000000000000001E-3</v>
@@ -1824,7 +1836,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C9">
         <v>0.03</v>
@@ -1832,7 +1844,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C10">
         <v>0.06</v>
@@ -1840,7 +1852,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C11">
         <v>0.15</v>
@@ -1848,7 +1860,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C12">
         <v>0.3</v>
@@ -1856,7 +1868,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="B13" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C13">
         <v>0.5</v>
@@ -1864,7 +1876,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="B14" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C14">
         <v>0.15</v>
@@ -1872,7 +1884,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="B15" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1880,7 +1892,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="B16" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1908,7 +1920,7 @@
         <v>94</v>
       </c>
       <c r="B1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="C1">
         <v>5.0000000000000001E-3</v>
@@ -1916,7 +1928,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="C2">
         <v>0.03</v>
@@ -1924,7 +1936,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="C3">
         <v>0.06</v>
@@ -1932,7 +1944,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="C4">
         <v>0.15</v>
@@ -1940,7 +1952,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="C5">
         <v>0.3</v>
@@ -1948,7 +1960,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -1956,7 +1968,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="B7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="C7">
         <v>0.15</v>
@@ -1964,7 +1976,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1972,7 +1984,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1986,9 +1998,9 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5213FE0F-D032-134C-8CBD-C9C991BBB3F3}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -1996,103 +2008,386 @@
     <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
+      <c r="C1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="C2" t="s">
+        <v>337</v>
+      </c>
+      <c r="D2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="C3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
+      <c r="D3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="C4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D11" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" t="s">
+        <v>96</v>
+      </c>
+      <c r="D16" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D19" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" t="s">
+        <v>96</v>
+      </c>
+      <c r="D20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24" t="s">
+        <v>96</v>
+      </c>
+      <c r="D24" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" t="s">
         <v>97</v>
       </c>
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="B6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="B13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="B14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="B16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
-        <v>110</v>
+      <c r="D25" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D26" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29" t="s">
+        <v>97</v>
+      </c>
+      <c r="D29" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30" t="s">
+        <v>97</v>
+      </c>
+      <c r="D30" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36" t="s">
+        <v>350</v>
+      </c>
+      <c r="D36" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37" t="s">
+        <v>350</v>
+      </c>
+      <c r="D37" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38" t="s">
+        <v>350</v>
+      </c>
+      <c r="D38" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39" t="s">
+        <v>350</v>
+      </c>
+      <c r="D39" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40" t="s">
+        <v>350</v>
+      </c>
+      <c r="D40" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41" t="s">
+        <v>350</v>
+      </c>
+      <c r="D41" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42" t="s">
+        <v>350</v>
+      </c>
+      <c r="D42" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43" t="s">
+        <v>350</v>
+      </c>
+      <c r="D43" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44" t="s">
+        <v>350</v>
+      </c>
+      <c r="D44" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45" t="s">
+        <v>350</v>
+      </c>
+      <c r="D45" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46" t="s">
+        <v>350</v>
+      </c>
+      <c r="D46" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47" t="s">
+        <v>337</v>
+      </c>
+      <c r="D47" t="s">
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2111,10 +2406,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C1">
         <v>0.01</v>
@@ -2122,7 +2417,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="C2">
         <v>1E-3</v>
@@ -2147,7 +2442,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="B1">
         <v>0.5</v>
@@ -2155,7 +2450,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2163,7 +2458,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B3">
         <v>1.4</v>
@@ -2171,7 +2466,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="B4">
         <v>0.25</v>
@@ -2179,7 +2474,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B5">
         <v>0.65</v>
@@ -2187,13 +2482,13 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>114</v>
+        <v>101</v>
       </c>
       <c r="D6" s="1"/>
     </row>
@@ -2202,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -2212,7 +2507,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
@@ -2222,7 +2517,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -2279,68 +2574,68 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>0.01</v>
       </c>
-      <c r="E15" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="F15" s="2">
+      <c r="E15" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="1">
         <v>0.03</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>0.03</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>0.02</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="1">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="1">
         <v>0.05</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C16" s="2">
+        <v>103</v>
+      </c>
+      <c r="C16" s="1">
         <v>0.02</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="1">
         <v>0.04</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="1">
         <v>0.12</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="1">
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="1">
         <v>5.5E-2</v>
       </c>
-      <c r="I16" s="2">
-        <v>0.05</v>
-      </c>
-      <c r="J16" s="2">
+      <c r="I16" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="J16" s="1">
         <v>0.12</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -2356,7 +2651,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B18" s="1">
         <v>0.8</v>
@@ -2372,7 +2667,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="B19" s="1">
         <v>0.5</v>
@@ -2388,7 +2683,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="B20" s="1">
         <v>0.7</v>
@@ -2404,7 +2699,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="B21">
         <v>0.01</v>
@@ -2412,7 +2707,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2437,7 +2732,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B1">
         <v>1.11E-2</v>
@@ -2457,7 +2752,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>1.11E-2</v>
@@ -2465,7 +2760,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="B3">
         <v>1.5800000000000002E-2</v>
@@ -2473,7 +2768,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="B4">
         <v>1.5800000000000002E-2</v>
@@ -2490,35 +2785,35 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G5" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="H5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="4" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B7" s="3">
         <v>1</v>
@@ -2607,7 +2902,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="B12" s="3">
         <v>0.4</v>
@@ -2615,7 +2910,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B13" s="3">
         <v>0.4</v>
@@ -2631,7 +2926,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -2639,7 +2934,7 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B16" s="3">
         <v>0.4</v>
@@ -2684,7 +2979,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B1">
         <v>0.11</v>
@@ -2692,7 +2987,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2708,7 +3003,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B4">
         <v>0.15</v>
@@ -2716,10 +3011,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C5">
         <v>2.2499999999999999E-2</v>
@@ -2727,7 +3022,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C6">
         <v>0.15</v>
@@ -2735,10 +3030,10 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2752,7 +3047,7 @@
   <sheetPr codeName="Sheet16"/>
   <dimension ref="A1:AA81"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -2768,10 +3063,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -2782,10 +3077,10 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2793,10 +3088,10 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2804,10 +3099,10 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2815,10 +3110,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2826,7 +3121,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -2837,7 +3132,7 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -2848,7 +3143,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -2859,7 +3154,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -2870,10 +3165,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E10" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2881,13 +3176,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E11" t="s">
         <v>327</v>
-      </c>
-      <c r="D11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2895,13 +3190,13 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" t="s">
+        <v>195</v>
+      </c>
+      <c r="E12" t="s">
         <v>328</v>
-      </c>
-      <c r="D12" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2909,7 +3204,7 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E13" t="s">
         <v>13</v>
@@ -2920,10 +3215,10 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2931,10 +3226,10 @@
         <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E15" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2942,10 +3237,10 @@
         <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:27">
@@ -2953,10 +3248,10 @@
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:27">
@@ -2964,7 +3259,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>7</v>
@@ -2975,7 +3270,7 @@
         <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>8</v>
@@ -2986,7 +3281,7 @@
         <v>18</v>
       </c>
       <c r="D20" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>9</v>
@@ -2997,7 +3292,7 @@
         <v>19</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>10</v>
@@ -3008,7 +3303,7 @@
         <v>20</v>
       </c>
       <c r="D22" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>13</v>
@@ -3019,15 +3314,15 @@
         <v>21</v>
       </c>
       <c r="D23" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="24" spans="1:27">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -3035,15 +3330,15 @@
     </row>
     <row r="25" spans="1:27">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:27">
       <c r="A26" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B26">
         <v>12</v>
@@ -3052,18 +3347,18 @@
         <v>21</v>
       </c>
       <c r="K26" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="L26" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:27">
       <c r="A27" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="C27">
         <v>5.0000000000000001E-3</v>
@@ -3132,12 +3427,12 @@
         <v>0.05</v>
       </c>
       <c r="AA27" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B28">
         <v>0.9</v>
@@ -3145,7 +3440,7 @@
     </row>
     <row r="29" spans="1:27">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B29">
         <v>0.5</v>
@@ -3153,7 +3448,7 @@
     </row>
     <row r="30" spans="1:27">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B30">
         <v>0.9</v>
@@ -3161,7 +3456,7 @@
     </row>
     <row r="31" spans="1:27">
       <c r="A31" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B31">
         <v>0.8</v>
@@ -3169,7 +3464,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B32">
         <v>0.9</v>
@@ -3177,7 +3472,7 @@
     </row>
     <row r="33" spans="1:22">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B33">
         <v>0.8</v>
@@ -3185,7 +3480,7 @@
     </row>
     <row r="34" spans="1:22">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B34">
         <v>0.9</v>
@@ -3193,7 +3488,7 @@
     </row>
     <row r="35" spans="1:22">
       <c r="A35" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B35">
         <v>0.8</v>
@@ -5107,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -5122,10 +5417,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="T2" s="17"/>
       <c r="U2" s="17"/>
@@ -5138,10 +5433,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -5149,10 +5444,10 @@
         <v>3</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="X4" s="17"/>
     </row>
@@ -5161,10 +5456,10 @@
         <v>4</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -5172,10 +5467,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -5183,10 +5478,10 @@
         <v>6</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -5194,7 +5489,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>9</v>
@@ -5206,10 +5501,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -5217,10 +5512,10 @@
         <v>9</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -5228,10 +5523,10 @@
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -5239,10 +5534,10 @@
         <v>11</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
       <c r="X12" s="17"/>
     </row>
@@ -5251,10 +5546,10 @@
         <v>12</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -5262,10 +5557,10 @@
         <v>13</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
       <c r="X14" s="17"/>
     </row>
@@ -5274,10 +5569,10 @@
         <v>14</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -5285,10 +5580,10 @@
         <v>15</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E16" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="U16" s="17"/>
       <c r="W16" s="17"/>
@@ -5299,10 +5594,10 @@
         <v>16</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E17" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -5310,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E18" t="s">
         <v>9</v>
@@ -5324,10 +5619,10 @@
         <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E19" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -5335,10 +5630,10 @@
         <v>19</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
       <c r="E20" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -5346,7 +5641,7 @@
         <v>20</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E21" t="s">
         <v>13</v>
@@ -5354,7 +5649,7 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B22">
         <v>5.0000000000000001E-3</v>
@@ -5419,7 +5714,7 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="B23" s="3">
         <v>1.4999999999999999E-2</v>
@@ -5427,7 +5722,7 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B24">
         <v>10</v>
@@ -5435,15 +5730,15 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -5451,7 +5746,7 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B27">
         <v>0.9</v>
@@ -5459,7 +5754,7 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="B28">
         <v>0.9</v>
@@ -5467,7 +5762,7 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="B29">
         <v>0.5</v>
@@ -5475,7 +5770,7 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="B30">
         <v>0.8</v>
@@ -5483,7 +5778,7 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B31">
         <v>0.9</v>
@@ -5491,7 +5786,7 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B32">
         <v>0.9</v>
@@ -5499,7 +5794,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="B33">
         <v>0.8</v>
@@ -5507,7 +5802,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B34">
         <v>0.8</v>
@@ -5523,7 +5818,7 @@
     </row>
     <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B36">
         <v>11</v>
@@ -6783,7 +7078,7 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CB646BC-02D0-0A44-A321-CB438F3714FE}">
   <sheetPr codeName="Sheet18"/>
-  <dimension ref="A1:O67"/>
+  <dimension ref="A1:O66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6802,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>30</v>
@@ -6969,7 +7264,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="3"/>
-      <c r="D12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6979,6 +7274,12 @@
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>42</v>
       </c>
     </row>
@@ -6987,7 +7288,7 @@
         <v>13</v>
       </c>
       <c r="C14" s="3"/>
-      <c r="D14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -7018,7 +7319,7 @@
         <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -7029,7 +7330,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -7040,7 +7341,7 @@
         <v>51</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -7048,10 +7349,10 @@
         <v>52</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -7059,10 +7360,10 @@
         <v>52</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -7070,10 +7371,10 @@
         <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D22" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -7081,10 +7382,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -7092,10 +7393,10 @@
         <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D24" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -7106,7 +7407,7 @@
         <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -7114,10 +7415,10 @@
         <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="D26" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -7125,10 +7426,10 @@
         <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -7136,10 +7437,10 @@
         <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D28" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -7147,10 +7448,10 @@
         <v>52</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D29" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -7158,10 +7459,10 @@
         <v>52</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D30" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -7169,10 +7470,10 @@
         <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D31" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -7180,10 +7481,10 @@
         <v>52</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D32" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -7191,10 +7492,10 @@
         <v>52</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -7202,10 +7503,10 @@
         <v>52</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D34" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -7213,10 +7514,10 @@
         <v>52</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D35" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -7224,10 +7525,10 @@
         <v>52</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D36" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -7235,10 +7536,10 @@
         <v>52</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D37" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -7246,10 +7547,10 @@
         <v>52</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D38" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -7257,10 +7558,10 @@
         <v>52</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D39" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -7271,7 +7572,7 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -7282,7 +7583,7 @@
         <v>53</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="2:4">
@@ -7293,7 +7594,7 @@
         <v>54</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -7304,7 +7605,7 @@
         <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="2:4">
@@ -7315,7 +7616,7 @@
         <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="2:4">
@@ -7326,7 +7627,7 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="2:4">
@@ -7337,7 +7638,7 @@
         <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="2:4">
@@ -7348,7 +7649,7 @@
         <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -7359,7 +7660,7 @@
         <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -7370,12 +7671,12 @@
         <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B50">
         <v>0.55000000000000004</v>
@@ -7419,7 +7720,7 @@
     </row>
     <row r="51" spans="1:15">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B51">
         <v>0.78</v>
@@ -7463,7 +7764,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="B52">
         <v>0.15</v>
@@ -7505,26 +7806,57 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="18">
-      <c r="A53" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="4">
-        <v>11</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>29</v>
-      </c>
+    <row r="53" spans="1:15">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>0.15</v>
+      </c>
+      <c r="D53">
+        <v>0.15</v>
+      </c>
+      <c r="E53">
+        <v>0.15</v>
+      </c>
+      <c r="F53">
+        <v>0.15</v>
+      </c>
+      <c r="G53">
+        <v>0.15</v>
+      </c>
+      <c r="H53">
+        <v>0.15</v>
+      </c>
+      <c r="I53">
+        <v>0.15</v>
+      </c>
+      <c r="J53">
+        <v>0.15</v>
+      </c>
+      <c r="K53">
+        <v>0.15</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0.45</v>
+      </c>
+      <c r="N53">
+        <v>0.45</v>
+      </c>
+      <c r="O53" s="3"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" t="s">
-        <v>3</v>
-      </c>
       <c r="B54">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="C54">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D54">
         <v>0.15</v>
@@ -7559,17 +7891,16 @@
       <c r="N54">
         <v>0.45</v>
       </c>
-      <c r="O54" s="3"/>
     </row>
     <row r="55" spans="1:15">
       <c r="B55">
         <v>0.15</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="D55">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E55">
         <v>0.15</v>
@@ -7610,10 +7941,10 @@
         <v>0.15</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="E56">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0.15</v>
@@ -7654,10 +7985,10 @@
         <v>0.15</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="F57">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>0.15</v>
@@ -7698,10 +8029,10 @@
         <v>0.15</v>
       </c>
       <c r="F58">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="G58">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H58">
         <v>0.15</v>
@@ -7742,10 +8073,10 @@
         <v>0.15</v>
       </c>
       <c r="G59">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="H59">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0.15</v>
@@ -7786,10 +8117,10 @@
         <v>0.15</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="I60">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J60">
         <v>0.15</v>
@@ -7830,10 +8161,10 @@
         <v>0.15</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="J61">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>0.15</v>
@@ -7874,10 +8205,10 @@
         <v>0.15</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>0.15</v>
       </c>
       <c r="K62">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="L62">
         <v>0</v>
@@ -7891,31 +8222,31 @@
     </row>
     <row r="63" spans="1:15">
       <c r="B63">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -7924,42 +8255,42 @@
         <v>0</v>
       </c>
       <c r="M63">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>0.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:15">
       <c r="B64">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="K64">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="L64">
         <v>0</v>
@@ -7968,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="65" spans="2:14">
@@ -8006,55 +8337,14 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="N65">
-        <v>0.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:14">
-      <c r="B66">
-        <v>0.45</v>
-      </c>
-      <c r="C66">
-        <v>0.45</v>
-      </c>
-      <c r="D66">
-        <v>0.45</v>
-      </c>
-      <c r="E66">
-        <v>0.45</v>
-      </c>
-      <c r="F66">
-        <v>0.45</v>
-      </c>
-      <c r="G66">
-        <v>0.45</v>
-      </c>
-      <c r="H66">
-        <v>0.45</v>
-      </c>
-      <c r="I66">
-        <v>0.45</v>
-      </c>
-      <c r="J66">
-        <v>0.45</v>
-      </c>
-      <c r="K66">
-        <v>0.45</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0.75</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="2:14">
-      <c r="B67" s="3"/>
+      <c r="B66" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8078,7 +8368,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -8086,7 +8376,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B2" s="3">
         <v>0.55000000000000004</v>
@@ -8094,7 +8384,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B3" s="3">
         <v>0.01</v>
@@ -8102,21 +8392,21 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C5">
         <v>60</v>
@@ -8124,7 +8414,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="B6" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="C6">
         <v>120</v>
@@ -8132,7 +8422,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="B7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C7">
         <v>120</v>
@@ -8140,7 +8430,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="B8" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C8">
         <v>120</v>
@@ -8148,7 +8438,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="B9" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C9">
         <v>20</v>
@@ -8159,7 +8449,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="B10" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C10">
         <v>60</v>
@@ -8170,7 +8460,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="B11" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="C11">
         <v>120</v>
@@ -8178,7 +8468,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="B12" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="C12">
         <v>40</v>
@@ -8209,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>65</v>
@@ -8221,7 +8511,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -8229,7 +8519,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -8237,7 +8527,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -8246,7 +8536,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -8255,7 +8545,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -8300,7 +8590,7 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -8309,7 +8599,7 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -8318,7 +8608,7 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -8333,7 +8623,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B15" s="10">
         <v>0.3</v>
@@ -8377,7 +8667,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
@@ -8968,7 +9258,9 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -8977,7 +9269,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="B1">
         <v>1.7000000000000001E-2</v>
@@ -9012,7 +9304,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>1.6E-2</v>
@@ -9020,7 +9312,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B3">
         <v>1.6E-2</v>
@@ -9037,35 +9329,35 @@
         <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="G4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="H4" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B6" s="3">
         <v>0.03</v>
@@ -9073,7 +9365,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="B7" s="3">
         <v>0.01</v>
@@ -9081,7 +9373,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B8" s="3">
         <v>1</v>
@@ -9405,7 +9697,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="B18" s="3">
         <v>0.999</v>
@@ -9423,7 +9715,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B19" s="3">
         <v>0.4</v>
@@ -9431,7 +9723,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="B20" s="3">
         <v>0</v>
@@ -9447,7 +9739,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="4" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B22" s="3">
         <v>0.8</v>
@@ -9536,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>4</v>
@@ -9551,10 +9843,10 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -9563,10 +9855,10 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -9575,10 +9867,10 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -9587,10 +9879,10 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -9599,7 +9891,7 @@
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>7</v>
@@ -9611,7 +9903,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>8</v>
@@ -9623,7 +9915,7 @@
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>9</v>
@@ -9635,7 +9927,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>10</v>
@@ -9647,10 +9939,10 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -9658,13 +9950,13 @@
         <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>327</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9672,13 +9964,13 @@
         <v>10</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>328</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -9687,10 +9979,10 @@
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -9699,10 +9991,10 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -9711,10 +10003,10 @@
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9723,7 +10015,7 @@
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>7</v>
@@ -9735,7 +10027,7 @@
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>8</v>
@@ -9747,7 +10039,7 @@
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>9</v>
@@ -9759,7 +10051,7 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>10</v>
@@ -9783,7 +10075,7 @@
         <v>6</v>
       </c>
       <c r="E21" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -9795,12 +10087,12 @@
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:22">
       <c r="A23" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B23">
         <v>5.0000000000000001E-3</v>
@@ -9868,7 +10160,7 @@
     </row>
     <row r="24" spans="1:22">
       <c r="A24" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B24">
         <v>0.35</v>
@@ -9876,7 +10168,7 @@
     </row>
     <row r="25" spans="1:22">
       <c r="A25" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B25">
         <v>0.65</v>
@@ -9884,7 +10176,7 @@
     </row>
     <row r="26" spans="1:22">
       <c r="A26" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B26">
         <v>0.999</v>
@@ -9892,7 +10184,7 @@
     </row>
     <row r="27" spans="1:22">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B27">
         <v>0.8</v>
@@ -9900,7 +10192,7 @@
     </row>
     <row r="28" spans="1:22">
       <c r="A28" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B28">
         <v>0.65</v>
@@ -9908,7 +10200,7 @@
     </row>
     <row r="29" spans="1:22">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B29">
         <v>0.999</v>
@@ -9916,7 +10208,7 @@
     </row>
     <row r="30" spans="1:22">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="B30">
         <v>10</v>
@@ -9924,10 +10216,10 @@
     </row>
     <row r="31" spans="1:22">
       <c r="A31" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:22" ht="18">
@@ -9944,7 +10236,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B33">
         <v>19</v>
@@ -11265,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -11280,10 +11572,10 @@
       </c>
       <c r="C2" s="13"/>
       <c r="D2" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E2" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -11292,10 +11584,10 @@
       </c>
       <c r="C3" s="13"/>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="E3" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -11304,10 +11596,10 @@
       </c>
       <c r="C4" s="13"/>
       <c r="D4" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -11316,10 +11608,10 @@
       </c>
       <c r="C5" s="13"/>
       <c r="D5" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -11328,7 +11620,7 @@
       </c>
       <c r="C6" s="13"/>
       <c r="D6" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="E6" t="s">
         <v>7</v>
@@ -11340,7 +11632,7 @@
       </c>
       <c r="C7" s="13"/>
       <c r="D7" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
@@ -11352,7 +11644,7 @@
       </c>
       <c r="C8" s="13"/>
       <c r="D8" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="E8" t="s">
         <v>9</v>
@@ -11364,7 +11656,7 @@
       </c>
       <c r="C9" s="13"/>
       <c r="D9" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="E9" t="s">
         <v>10</v>
@@ -11376,10 +11668,10 @@
       </c>
       <c r="C10" s="13"/>
       <c r="D10" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -11388,10 +11680,10 @@
       </c>
       <c r="C11" s="13"/>
       <c r="D11" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="E11" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -11400,10 +11692,10 @@
       </c>
       <c r="C12" s="13"/>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E12" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -11412,10 +11704,10 @@
       </c>
       <c r="C13" s="13"/>
       <c r="D13" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E13" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -11424,10 +11716,10 @@
       </c>
       <c r="C14" s="13"/>
       <c r="D14" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E14" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -11436,7 +11728,7 @@
       </c>
       <c r="C15" s="13"/>
       <c r="D15" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E15" t="s">
         <v>7</v>
@@ -11448,7 +11740,7 @@
       </c>
       <c r="C16" s="13"/>
       <c r="D16" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E16" t="s">
         <v>8</v>
@@ -11460,7 +11752,7 @@
       </c>
       <c r="C17" s="13"/>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E17" t="s">
         <v>9</v>
@@ -11472,7 +11764,7 @@
       </c>
       <c r="C18" s="13"/>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E18" t="s">
         <v>10</v>
@@ -11484,7 +11776,7 @@
       </c>
       <c r="C19" s="13"/>
       <c r="D19" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="E19" t="s">
         <v>13</v>
@@ -11492,7 +11784,7 @@
     </row>
     <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B20">
         <v>0.04</v>
@@ -11551,7 +11843,7 @@
     </row>
     <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B21">
         <v>0.35</v>
@@ -11559,7 +11851,7 @@
     </row>
     <row r="22" spans="1:19">
       <c r="A22" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B22">
         <v>0.65</v>
@@ -11567,7 +11859,7 @@
     </row>
     <row r="23" spans="1:19">
       <c r="A23" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B23">
         <v>0.99</v>
@@ -12661,7 +12953,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -12963,13 +13255,13 @@
         <v>25</v>
       </c>
       <c r="C26" s="3"/>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B27">
         <v>8.9999999999999993E-3</v>
@@ -13049,7 +13341,7 @@
     </row>
     <row r="28" spans="1:26">
       <c r="A28" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B28">
         <v>0.4</v>
@@ -13057,7 +13349,7 @@
     </row>
     <row r="29" spans="1:26">
       <c r="A29" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B29">
         <v>0.8</v>
@@ -13065,7 +13357,7 @@
     </row>
     <row r="30" spans="1:26">
       <c r="A30" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B30">
         <v>0.999</v>
@@ -13150,7 +13442,7 @@
     <col min="4" max="4" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -13158,10 +13450,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>31</v>
@@ -13170,7 +13462,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="B2" s="3">
         <v>1</v>
       </c>
@@ -13185,7 +13477,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="B3" s="3">
         <v>2</v>
       </c>
@@ -13200,7 +13492,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="B4" s="3">
         <v>3</v>
       </c>
@@ -13215,7 +13507,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="B5" s="3">
         <v>4</v>
       </c>
@@ -13230,7 +13522,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="B6" s="3">
         <v>5</v>
       </c>
@@ -13245,7 +13537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="B7" s="3">
         <v>6</v>
       </c>
@@ -13260,7 +13552,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="B8" s="3">
         <v>7</v>
       </c>
@@ -13275,7 +13567,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="B9" s="3">
         <v>8</v>
       </c>
@@ -13290,7 +13582,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="B10" s="3">
         <v>9</v>
       </c>
@@ -13305,7 +13597,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="B11" s="3">
         <v>10</v>
       </c>
@@ -13320,7 +13612,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="B12" s="3">
         <v>11</v>
       </c>
@@ -13329,16 +13621,16 @@
         <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+      <c r="J12" s="3" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="B13" s="3">
         <v>12</v>
       </c>
@@ -13350,10 +13642,10 @@
         <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="B14" s="3">
         <v>13</v>
       </c>
@@ -13361,11 +13653,14 @@
       <c r="D14" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="15" spans="1:9">
+      <c r="J14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -13373,7 +13668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -13392,7 +13687,7 @@
         <v>49</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -13403,7 +13698,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -13414,7 +13709,7 @@
         <v>51</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -13422,10 +13717,10 @@
         <v>52</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="D20" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -13433,10 +13728,10 @@
         <v>52</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -13444,10 +13739,10 @@
         <v>52</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="D22" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -13455,10 +13750,10 @@
         <v>52</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="D23" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -13466,10 +13761,10 @@
         <v>52</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="D24" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -13480,7 +13775,7 @@
         <v>52</v>
       </c>
       <c r="D25" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -13488,10 +13783,10 @@
         <v>52</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="D26" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -13499,10 +13794,10 @@
         <v>52</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D27" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -13510,10 +13805,10 @@
         <v>52</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="D28" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -13521,10 +13816,10 @@
         <v>52</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="D29" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -13532,10 +13827,10 @@
         <v>52</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="D30" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -13543,10 +13838,10 @@
         <v>52</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="D31" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -13554,10 +13849,10 @@
         <v>52</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="D32" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="2:4">
@@ -13565,10 +13860,10 @@
         <v>52</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34" spans="2:4">
@@ -13576,10 +13871,10 @@
         <v>52</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="D34" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="2:4">
@@ -13587,10 +13882,10 @@
         <v>52</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="D35" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -13598,10 +13893,10 @@
         <v>52</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="D36" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="2:4">
@@ -13609,10 +13904,10 @@
         <v>52</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="D37" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -13620,10 +13915,10 @@
         <v>52</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D38" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -13631,10 +13926,10 @@
         <v>52</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="D39" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40" spans="2:4">
@@ -13645,7 +13940,7 @@
         <v>48</v>
       </c>
       <c r="D40" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41" spans="2:4">
@@ -13656,7 +13951,7 @@
         <v>53</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
     </row>
     <row r="42" spans="2:4">
@@ -13667,7 +13962,7 @@
         <v>54</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -13678,7 +13973,7 @@
         <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="2:4">
@@ -13689,7 +13984,7 @@
         <v>56</v>
       </c>
       <c r="D44" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
     </row>
     <row r="45" spans="2:4">
@@ -13700,7 +13995,7 @@
         <v>57</v>
       </c>
       <c r="D45" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="2:4">
@@ -13711,7 +14006,7 @@
         <v>58</v>
       </c>
       <c r="D46" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47" spans="2:4">
@@ -13722,7 +14017,7 @@
         <v>59</v>
       </c>
       <c r="D47" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="48" spans="2:4">
@@ -13733,7 +14028,7 @@
         <v>60</v>
       </c>
       <c r="D48" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:15">
@@ -13744,12 +14039,12 @@
         <v>61</v>
       </c>
       <c r="D49" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>62</v>
@@ -13840,7 +14135,7 @@
     </row>
     <row r="52" spans="1:15">
       <c r="A52" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="B52">
         <v>0.15</v>
@@ -13884,7 +14179,7 @@
     </row>
     <row r="53" spans="1:15">
       <c r="A53" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B53">
         <v>0.999</v>
@@ -14485,7 +14780,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>65</v>
@@ -14524,10 +14819,10 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -14535,13 +14830,13 @@
         <v>3</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -14549,13 +14844,13 @@
         <v>3</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -14656,7 +14951,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="B15">
         <v>0.3</v>
@@ -14700,7 +14995,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B16" s="3">
         <v>0.55000000000000004</v>
@@ -14738,7 +15033,7 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B17" s="3">
         <v>0.99</v>
@@ -14746,7 +15041,7 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B18" s="3">
         <v>0.999</v>
@@ -15201,7 +15496,7 @@
     </row>
     <row r="42" spans="4:4">
       <c r="D42" s="20" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="43" spans="4:4">
@@ -15226,7 +15521,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="B1">
         <v>0.15</v>
@@ -15255,92 +15550,92 @@
     </row>
     <row r="5" spans="1:2">
       <c r="B5" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="B7" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="B11" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="B12" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>174</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
-        <v>177</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="B19" t="s">
-        <v>178</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" t="s">
-        <v>179</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="B22" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -15365,7 +15660,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="B24">
         <v>0.15</v>
@@ -15373,10 +15668,10 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="C25">
         <v>2.2499999999999999E-2</v>
@@ -15384,7 +15679,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="C26">
         <v>0.15</v>
@@ -15392,10 +15687,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="B27" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/Configs/FRTBConfig_EU-EBA.xlsx
+++ b/Configs/FRTBConfig_EU-EBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alan/Workspace/FRTB/Configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC02F982-6A9C-7340-82EC-AA58F63B4085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7077843F-9A3A-C845-BE7C-ABD2ADA3D89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="79560" yWindow="10580" windowWidth="39620" windowHeight="26960" activeTab="11" xr2:uid="{702274BA-38C3-0147-8564-8B67C0FD49FC}"/>
+    <workbookView xWindow="79560" yWindow="10580" windowWidth="39620" windowHeight="26960" xr2:uid="{702274BA-38C3-0147-8564-8B67C0FD49FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Copyright" sheetId="23" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="353">
   <si>
     <t>Bucket</t>
   </si>
@@ -1187,6 +1187,9 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>In the EU, buckets 3, 3a and 3b have separately specified risk weights but are the same buket for intra- and inter- bucket computations.</t>
   </si>
 </sst>
 </file>
@@ -1678,7 +1681,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{896FB02E-B9E7-EE44-B543-FBA941EB6786}">
   <dimension ref="A1:A17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2000,7 +2003,7 @@
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -15494,10 +15497,13 @@
         <v>10</v>
       </c>
     </row>
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
+        <v>352</v>
+      </c>
+    </row>
     <row r="42" spans="4:4">
-      <c r="D42" s="20" t="s">
-        <v>310</v>
-      </c>
+      <c r="D42" s="20"/>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" s="20"/>

--- a/Configs/FRTBConfig_EU-EBA.xlsx
+++ b/Configs/FRTBConfig_EU-EBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alan/Workspace/FRTB/Configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7077843F-9A3A-C845-BE7C-ABD2ADA3D89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC81A5E-92B8-3842-BC8F-3A466351A907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="79560" yWindow="10580" windowWidth="39620" windowHeight="26960" xr2:uid="{702274BA-38C3-0147-8564-8B67C0FD49FC}"/>
+    <workbookView xWindow="97040" yWindow="15480" windowWidth="39620" windowHeight="26960" xr2:uid="{702274BA-38C3-0147-8564-8B67C0FD49FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Copyright" sheetId="23" r:id="rId1"/>
@@ -1078,9 +1078,6 @@
     <t>b</t>
   </si>
   <si>
-    <t>Copyright (C) 2024 frtb.net limited</t>
-  </si>
-  <si>
     <t>Contact us at &lt;info@frtb.net&gt; or via our website at &lt;https://frtb.net&gt;</t>
   </si>
   <si>
@@ -1190,6 +1187,9 @@
   </si>
   <si>
     <t>In the EU, buckets 3, 3a and 3b have separately specified risk weights but are the same buket for intra- and inter- bucket computations.</t>
+  </si>
+  <si>
+    <t>Copyright (C) 2024-2025 frtb.net limited</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1689,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="21" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -1697,7 +1697,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -1708,22 +1708,22 @@
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="21" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="21" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:1">
@@ -1731,22 +1731,22 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="21" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:1">
@@ -1754,12 +1754,12 @@
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="21" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2019,378 +2019,516 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:4">
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" t="s">
         <v>337</v>
       </c>
-      <c r="D2" t="s">
-        <v>338</v>
-      </c>
     </row>
     <row r="3" spans="1:4">
+      <c r="B3">
+        <v>2</v>
+      </c>
       <c r="C3" t="s">
         <v>95</v>
       </c>
       <c r="D3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4" spans="1:4">
+      <c r="B4">
+        <v>3</v>
+      </c>
       <c r="C4" t="s">
         <v>95</v>
       </c>
       <c r="D4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5" spans="1:4">
+      <c r="B5">
+        <v>4</v>
+      </c>
       <c r="C5" t="s">
         <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:4">
+      <c r="B6">
+        <v>5</v>
+      </c>
       <c r="C6" t="s">
         <v>95</v>
       </c>
       <c r="D6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:4">
+      <c r="B7">
+        <v>6</v>
+      </c>
       <c r="C7" t="s">
         <v>95</v>
       </c>
       <c r="D7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:4">
+      <c r="B8">
+        <v>7</v>
+      </c>
       <c r="C8" t="s">
         <v>95</v>
       </c>
       <c r="D8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:4">
+      <c r="B9">
+        <v>8</v>
+      </c>
       <c r="C9" t="s">
         <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:4">
+      <c r="B10">
+        <v>9</v>
+      </c>
       <c r="C10" t="s">
         <v>95</v>
       </c>
       <c r="D10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:4">
+      <c r="B11">
+        <v>10</v>
+      </c>
       <c r="C11" t="s">
         <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="12" spans="1:4">
+      <c r="B12">
+        <v>11</v>
+      </c>
       <c r="C12" t="s">
         <v>95</v>
       </c>
       <c r="D12" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:4">
+      <c r="B13">
+        <v>12</v>
+      </c>
       <c r="C13" t="s">
         <v>95</v>
       </c>
       <c r="D13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="14" spans="1:4">
+      <c r="B14">
+        <v>13</v>
+      </c>
       <c r="C14" t="s">
         <v>96</v>
       </c>
       <c r="D14" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="15" spans="1:4">
+      <c r="B15">
+        <v>14</v>
+      </c>
       <c r="C15" t="s">
         <v>96</v>
       </c>
       <c r="D15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="16" spans="1:4">
+      <c r="B16">
+        <v>15</v>
+      </c>
       <c r="C16" t="s">
         <v>96</v>
       </c>
       <c r="D16" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="17" spans="3:4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>16</v>
+      </c>
       <c r="C17" t="s">
         <v>96</v>
       </c>
       <c r="D17" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="18" spans="3:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18">
+        <v>17</v>
+      </c>
       <c r="C18" t="s">
         <v>96</v>
       </c>
       <c r="D18" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19">
+        <v>18</v>
+      </c>
       <c r="C19" t="s">
         <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20">
+        <v>19</v>
+      </c>
       <c r="C20" t="s">
         <v>96</v>
       </c>
       <c r="D20" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="21" spans="3:4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21">
+        <v>20</v>
+      </c>
       <c r="C21" t="s">
         <v>96</v>
       </c>
       <c r="D21" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="22" spans="3:4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22">
+        <v>21</v>
+      </c>
       <c r="C22" t="s">
         <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23">
+        <v>22</v>
+      </c>
       <c r="C23" t="s">
         <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="24" spans="3:4">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24">
+        <v>23</v>
+      </c>
       <c r="C24" t="s">
         <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="25" spans="3:4">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25">
+        <v>24</v>
+      </c>
       <c r="C25" t="s">
         <v>97</v>
       </c>
       <c r="D25" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="26" spans="3:4">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26">
+        <v>25</v>
+      </c>
       <c r="C26" t="s">
         <v>97</v>
       </c>
       <c r="D26" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="27" spans="3:4">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27">
+        <v>26</v>
+      </c>
       <c r="C27" t="s">
         <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="28" spans="3:4">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28">
+        <v>27</v>
+      </c>
       <c r="C28" t="s">
         <v>97</v>
       </c>
       <c r="D28" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="29" spans="3:4">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29">
+        <v>28</v>
+      </c>
       <c r="C29" t="s">
         <v>97</v>
       </c>
       <c r="D29" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="30" spans="3:4">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30">
+        <v>29</v>
+      </c>
       <c r="C30" t="s">
         <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="31" spans="3:4">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31">
+        <v>30</v>
+      </c>
       <c r="C31" t="s">
         <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="32" spans="3:4">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32">
+        <v>31</v>
+      </c>
       <c r="C32" t="s">
         <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33">
+        <v>32</v>
+      </c>
       <c r="C33" t="s">
         <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="34" spans="3:4">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34">
+        <v>33</v>
+      </c>
       <c r="C34" t="s">
         <v>97</v>
       </c>
       <c r="D34" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="35" spans="3:4">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35">
+        <v>34</v>
+      </c>
       <c r="C35" t="s">
         <v>97</v>
       </c>
       <c r="D35" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="36" spans="3:4">
-      <c r="C36" t="s">
+      <c r="D36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>349</v>
+      </c>
+      <c r="D37" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>349</v>
+      </c>
+      <c r="D38" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>349</v>
+      </c>
+      <c r="D39" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>349</v>
+      </c>
+      <c r="D40" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>349</v>
+      </c>
+      <c r="D41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>349</v>
+      </c>
+      <c r="D42" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>349</v>
+      </c>
+      <c r="D43" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>349</v>
+      </c>
+      <c r="D44" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>349</v>
+      </c>
+      <c r="D45" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>349</v>
+      </c>
+      <c r="D46" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>336</v>
+      </c>
+      <c r="D47" t="s">
         <v>350</v>
-      </c>
-      <c r="D36" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="37" spans="3:4">
-      <c r="C37" t="s">
-        <v>350</v>
-      </c>
-      <c r="D37" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="38" spans="3:4">
-      <c r="C38" t="s">
-        <v>350</v>
-      </c>
-      <c r="D38" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="39" spans="3:4">
-      <c r="C39" t="s">
-        <v>350</v>
-      </c>
-      <c r="D39" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="40" spans="3:4">
-      <c r="C40" t="s">
-        <v>350</v>
-      </c>
-      <c r="D40" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="41" spans="3:4">
-      <c r="C41" t="s">
-        <v>350</v>
-      </c>
-      <c r="D41" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="42" spans="3:4">
-      <c r="C42" t="s">
-        <v>350</v>
-      </c>
-      <c r="D42" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="43" spans="3:4">
-      <c r="C43" t="s">
-        <v>350</v>
-      </c>
-      <c r="D43" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="44" spans="3:4">
-      <c r="C44" t="s">
-        <v>350</v>
-      </c>
-      <c r="D44" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="45" spans="3:4">
-      <c r="C45" t="s">
-        <v>350</v>
-      </c>
-      <c r="D45" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="46" spans="3:4">
-      <c r="C46" t="s">
-        <v>350</v>
-      </c>
-      <c r="D46" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="47" spans="3:4">
-      <c r="C47" t="s">
-        <v>337</v>
-      </c>
-      <c r="D47" t="s">
-        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3185,7 +3323,7 @@
         <v>195</v>
       </c>
       <c r="E11" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3199,7 +3337,7 @@
         <v>195</v>
       </c>
       <c r="E12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3350,10 +3488,10 @@
         <v>21</v>
       </c>
       <c r="K26" t="s">
+        <v>328</v>
+      </c>
+      <c r="L26" t="s">
         <v>329</v>
-      </c>
-      <c r="L26" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="27" spans="1:27">
@@ -3361,7 +3499,7 @@
         <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C27">
         <v>5.0000000000000001E-3</v>
@@ -3430,7 +3568,7 @@
         <v>0.05</v>
       </c>
       <c r="AA27" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -8359,7 +8497,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -9262,7 +9402,7 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -9956,10 +10096,10 @@
         <v>313</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -9973,7 +10113,7 @@
         <v>202</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -13660,7 +13800,7 @@
         <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -14765,7 +14905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D9CBB0-8FB1-0346-A43A-59A14A264CE5}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -15499,7 +15641,7 @@
     </row>
     <row r="35" spans="4:4">
       <c r="D35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="42" spans="4:4">
@@ -15601,7 +15743,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:2">

--- a/Configs/FRTBConfig_EU-EBA.xlsx
+++ b/Configs/FRTBConfig_EU-EBA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alan/Workspace/FRTB/Configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AC81A5E-92B8-3842-BC8F-3A466351A907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57B0CF4-1465-E347-98C6-D9F7AFBFDBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="97040" yWindow="15480" windowWidth="39620" windowHeight="26960" xr2:uid="{702274BA-38C3-0147-8564-8B67C0FD49FC}"/>
+    <workbookView xWindow="97020" yWindow="15460" windowWidth="39620" windowHeight="26960" xr2:uid="{702274BA-38C3-0147-8564-8B67C0FD49FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Copyright" sheetId="23" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="387">
   <si>
     <t>Bucket</t>
   </si>
@@ -1191,12 +1191,114 @@
   <si>
     <t>Copyright (C) 2024-2025 frtb.net limited</t>
   </si>
+  <si>
+    <t>Buckets</t>
+  </si>
+  <si>
+    <t>FutureVol</t>
+  </si>
+  <si>
+    <t>Future realised volatility</t>
+  </si>
+  <si>
+    <t>NaturalDisaster</t>
+  </si>
+  <si>
+    <t>Natural disasters</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>Longevity</t>
+  </si>
+  <si>
+    <t>Longevity risk</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Other exotic underlyings which are not in the scope of the delta, vega or curvature risk</t>
+  </si>
+  <si>
+    <t>PathDependent</t>
+  </si>
+  <si>
+    <t>FutureStrike</t>
+  </si>
+  <si>
+    <t>OptionOnOption</t>
+  </si>
+  <si>
+    <t>Discontinuious</t>
+  </si>
+  <si>
+    <t>VarialbleTerms</t>
+  </si>
+  <si>
+    <t>Bermudan</t>
+  </si>
+  <si>
+    <t>XCcy</t>
+  </si>
+  <si>
+    <t>MultiUnderlier</t>
+  </si>
+  <si>
+    <t>Behavioural</t>
+  </si>
+  <si>
+    <t>OpenMaturity</t>
+  </si>
+  <si>
+    <t>MultiBarrier</t>
+  </si>
+  <si>
+    <t>Other instruments exposed to residual risk</t>
+  </si>
+  <si>
+    <t>Options where the pay-offs depend on the path followed by the price of the underlying asset and not just its final price on the exercise date</t>
+  </si>
+  <si>
+    <t>Options that start at a predefined date in the future and whose strike price is not yet determined at the time at which the option is in the trading book of the institution</t>
+  </si>
+  <si>
+    <t>Options whose underlying is another option</t>
+  </si>
+  <si>
+    <t>Options with discontinuous pay-offs</t>
+  </si>
+  <si>
+    <t>Options allowing the holder to modify the strike price or other terms of the contract before the maturity of the option</t>
+  </si>
+  <si>
+    <t>Options that can be exercised on a finite set of predetermined dates</t>
+  </si>
+  <si>
+    <t>Options whose underlying is denominated in one currency but whose pay-offs are settled in a different currency, with a predetermined exchange rate between the two currencies</t>
+  </si>
+  <si>
+    <t>Multi-underlying options</t>
+  </si>
+  <si>
+    <t>Options subject to behavioural risk</t>
+  </si>
+  <si>
+    <t>Options that do not have a maturity</t>
+  </si>
+  <si>
+    <t>Options that do not have a strike or barrier and options that have multiple strikes or barriers</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1304,6 +1406,12 @@
       <color rgb="FFFF0000"/>
       <name val="Source Code Pro"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1338,7 +1446,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1364,6 +1472,12 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2539,28 +2653,232 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C708CD6-DEC9-194A-B3B9-9CA14913B1F0}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="B2" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>359</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>363</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" t="s">
+        <v>178</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="B9" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" t="s">
+        <v>178</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>367</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>368</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="B13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>369</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="B14" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="B15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>371</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="B16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>372</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="B17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>373</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="B18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>361</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
         <v>176</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B19" t="s">
         <v>177</v>
       </c>
-      <c r="C1">
+      <c r="C19">
         <v>0.01</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="B2" t="s">
+    <row r="20" spans="1:4">
+      <c r="B20" t="s">
         <v>178</v>
       </c>
-      <c r="C2">
+      <c r="C20">
         <v>1E-3</v>
       </c>
     </row>
@@ -14905,9 +15223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46D9CBB0-8FB1-0346-A43A-59A14A264CE5}">
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>

--- a/Configs/FRTBConfig_EU-EBA.xlsx
+++ b/Configs/FRTBConfig_EU-EBA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alan/Workspace/FRTB/Configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57B0CF4-1465-E347-98C6-D9F7AFBFDBD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFBCDFB-1F20-094E-A1D8-0C0373174BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="97020" yWindow="15460" windowWidth="39620" windowHeight="26960" xr2:uid="{702274BA-38C3-0147-8564-8B67C0FD49FC}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="387">
   <si>
     <t>Bucket</t>
   </si>
@@ -2115,7 +2115,7 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5213FE0F-D032-134C-8CBD-C9C991BBB3F3}">
   <sheetPr codeName="Sheet11"/>
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2480,7 +2480,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="33" spans="2:4">
+    <row r="33" spans="1:4">
       <c r="B33">
         <v>32</v>
       </c>
@@ -2491,7 +2491,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="34" spans="2:4">
+    <row r="34" spans="1:4">
       <c r="B34">
         <v>33</v>
       </c>
@@ -2502,7 +2502,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="35" spans="2:4">
+    <row r="35" spans="1:4">
       <c r="B35">
         <v>34</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="36" spans="2:4">
+    <row r="36" spans="1:4">
       <c r="B36">
         <v>35</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="2:4">
+    <row r="37" spans="1:4">
       <c r="B37">
         <v>36</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="38" spans="2:4">
+    <row r="38" spans="1:4">
       <c r="B38">
         <v>37</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="39" spans="2:4">
+    <row r="39" spans="1:4">
       <c r="B39">
         <v>38</v>
       </c>
@@ -2557,7 +2557,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="40" spans="2:4">
+    <row r="40" spans="1:4">
       <c r="B40">
         <v>39</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="41" spans="2:4">
+    <row r="41" spans="1:4">
       <c r="B41">
         <v>40</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="42" spans="2:4">
+    <row r="42" spans="1:4">
       <c r="B42">
         <v>41</v>
       </c>
@@ -2590,7 +2590,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="43" spans="2:4">
+    <row r="43" spans="1:4">
       <c r="B43">
         <v>42</v>
       </c>
@@ -2601,7 +2601,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="44" spans="2:4">
+    <row r="44" spans="1:4">
       <c r="B44">
         <v>43</v>
       </c>
@@ -2612,7 +2612,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="45" spans="2:4">
+    <row r="45" spans="1:4">
       <c r="B45">
         <v>44</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="46" spans="2:4">
+    <row r="46" spans="1:4">
       <c r="B46">
         <v>45</v>
       </c>
@@ -2634,7 +2634,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="47" spans="2:4">
+    <row r="47" spans="1:4">
       <c r="B47">
         <v>46</v>
       </c>
@@ -2643,6 +2643,81 @@
       </c>
       <c r="D47" t="s">
         <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3">
+      <c r="B49" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3">
+      <c r="B50" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3">
+      <c r="B51" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3">
+      <c r="B52" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3">
+      <c r="B53" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
+      <c r="B54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
+      <c r="B55" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3">
+      <c r="B56" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8815,9 +8890,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -9719,9 +9792,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>

--- a/Configs/FRTBConfig_EU-EBA.xlsx
+++ b/Configs/FRTBConfig_EU-EBA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alan/Workspace/FRTB/Configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFBCDFB-1F20-094E-A1D8-0C0373174BF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7B88C4-E7B4-1547-A69B-C3FC209DD4D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="97020" yWindow="15460" windowWidth="39620" windowHeight="26960" xr2:uid="{702274BA-38C3-0147-8564-8B67C0FD49FC}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1007" uniqueCount="386">
   <si>
     <t>Bucket</t>
   </si>
@@ -1190,9 +1190,6 @@
   </si>
   <si>
     <t>Copyright (C) 2024-2025 frtb.net limited</t>
-  </si>
-  <si>
-    <t>Buckets</t>
   </si>
   <si>
     <t>FutureVol</t>
@@ -2739,7 +2736,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2748,7 +2745,7 @@
         <v>168</v>
       </c>
       <c r="D1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2756,10 +2753,10 @@
         <v>177</v>
       </c>
       <c r="C2" s="24" t="s">
+        <v>353</v>
+      </c>
+      <c r="D2" s="24" t="s">
         <v>354</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2767,10 +2764,10 @@
         <v>177</v>
       </c>
       <c r="C3" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>356</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2778,10 +2775,10 @@
         <v>177</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2789,10 +2786,10 @@
         <v>177</v>
       </c>
       <c r="C5" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="D5" s="24" t="s">
         <v>359</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2800,10 +2797,10 @@
         <v>177</v>
       </c>
       <c r="C6" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="D6" s="24" t="s">
         <v>361</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2811,10 +2808,10 @@
         <v>178</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D7" s="24" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2822,10 +2819,10 @@
         <v>178</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D8" s="24" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2833,10 +2830,10 @@
         <v>178</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2844,10 +2841,10 @@
         <v>178</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2855,10 +2852,10 @@
         <v>178</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -2866,10 +2863,10 @@
         <v>178</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2877,10 +2874,10 @@
         <v>178</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -2888,10 +2885,10 @@
         <v>178</v>
       </c>
       <c r="C14" s="24" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -2899,10 +2896,10 @@
         <v>178</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -2910,10 +2907,10 @@
         <v>178</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -2921,10 +2918,10 @@
         <v>178</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -2932,10 +2929,10 @@
         <v>178</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="19" spans="1:4">
